--- a/Excel Files/CHIK_Dominica.xlsx
+++ b/Excel Files/CHIK_Dominica.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joceline Lega\Box Sync\DyMSiM\One- or Two-Parabola Models\MATLAB\Math_EpiGro_paper\MATLAB_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17355" yWindow="105" windowWidth="10200" windowHeight="12435"/>
+    <workbookView xWindow="17355" yWindow="105" windowWidth="10200" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -206,6 +211,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="70" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -436,109 +461,109 @@
                   <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>380</c:v>
+                  <c:v>425</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>501</c:v>
+                  <c:v>551</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>652</c:v>
+                  <c:v>705</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>839</c:v>
+                  <c:v>891</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1060</c:v>
+                  <c:v>1108</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1313</c:v>
+                  <c:v>1354</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1591</c:v>
+                  <c:v>1620</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1883</c:v>
+                  <c:v>1898</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>2175</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2454</c:v>
+                  <c:v>2440</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2707</c:v>
+                  <c:v>2683</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2929</c:v>
+                  <c:v>2898</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3116</c:v>
+                  <c:v>3081</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3269</c:v>
+                  <c:v>3233</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3389</c:v>
+                  <c:v>3355</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3484</c:v>
+                  <c:v>3453</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3557</c:v>
+                  <c:v>3529</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3612</c:v>
+                  <c:v>3588</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3653</c:v>
+                  <c:v>3634</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3684</c:v>
+                  <c:v>3668</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3707</c:v>
+                  <c:v>3694</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3724</c:v>
+                  <c:v>3713</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3737</c:v>
+                  <c:v>3728</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3746</c:v>
+                  <c:v>3739</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3752</c:v>
+                  <c:v>3747</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3757</c:v>
+                  <c:v>3753</c:v>
                 </c:pt>
                 <c:pt idx="36">
+                  <c:v>3758</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>3761</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>3764</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>3766</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>3767</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>3768</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>3769</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
+                  <c:v>3769</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>3770</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3770</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3769</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>3770</c:v>
@@ -969,11 +994,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="87181184"/>
-        <c:axId val="87208704"/>
+        <c:axId val="532351520"/>
+        <c:axId val="532359680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87181184"/>
+        <c:axId val="532351520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1030,12 +1055,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87208704"/>
+        <c:crossAx val="532359680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87208704"/>
+        <c:axId val="532359680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1086,7 +1111,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87181184"/>
+        <c:crossAx val="532351520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2030,7 +2055,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2040,7 +2065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22:B22"/>
     </sheetView>
   </sheetViews>
@@ -2859,7 +2884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10:B12"/>
     </sheetView>
   </sheetViews>
@@ -2909,7 +2934,7 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>294.43096771845148</v>
+        <v>279.54237001372479</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -3005,7 +3030,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -3022,7 +3047,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11">
         <v>9</v>
@@ -3059,7 +3084,7 @@
         <v>450</v>
       </c>
       <c r="F13">
-        <v>380</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
@@ -3070,7 +3095,7 @@
         <v>559</v>
       </c>
       <c r="F14">
-        <v>501</v>
+        <v>551</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
@@ -3081,7 +3106,7 @@
         <v>639</v>
       </c>
       <c r="F15">
-        <v>652</v>
+        <v>705</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
@@ -3092,7 +3117,7 @@
         <v>952</v>
       </c>
       <c r="F16">
-        <v>839</v>
+        <v>891</v>
       </c>
     </row>
     <row r="17" spans="4:6" ht="14.45" x14ac:dyDescent="0.35">
@@ -3103,7 +3128,7 @@
         <v>1161</v>
       </c>
       <c r="F17">
-        <v>1060</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="18" spans="4:6" ht="14.45" x14ac:dyDescent="0.35">
@@ -3114,7 +3139,7 @@
         <v>1357</v>
       </c>
       <c r="F18">
-        <v>1313</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.25">
@@ -3125,7 +3150,7 @@
         <v>1357</v>
       </c>
       <c r="F19">
-        <v>1591</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.25">
@@ -3136,7 +3161,7 @@
         <v>1357</v>
       </c>
       <c r="F20">
-        <v>1883</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.25">
@@ -3158,7 +3183,7 @@
         <v>2492</v>
       </c>
       <c r="F22">
-        <v>2454</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.25">
@@ -3169,7 +3194,7 @@
         <v>2492</v>
       </c>
       <c r="F23">
-        <v>2707</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.25">
@@ -3180,7 +3205,7 @@
         <v>3243</v>
       </c>
       <c r="F24">
-        <v>2929</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.25">
@@ -3191,7 +3216,7 @@
         <v>3243</v>
       </c>
       <c r="F25">
-        <v>3116</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.25">
@@ -3202,7 +3227,7 @@
         <v>3243</v>
       </c>
       <c r="F26">
-        <v>3269</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.25">
@@ -3213,7 +3238,7 @@
         <v>3243</v>
       </c>
       <c r="F27">
-        <v>3389</v>
+        <v>3355</v>
       </c>
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.25">
@@ -3224,7 +3249,7 @@
         <v>3243</v>
       </c>
       <c r="F28">
-        <v>3484</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.25">
@@ -3235,7 +3260,7 @@
         <v>3243</v>
       </c>
       <c r="F29">
-        <v>3557</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="30" spans="4:6" x14ac:dyDescent="0.25">
@@ -3246,7 +3271,7 @@
         <v>3700</v>
       </c>
       <c r="F30">
-        <v>3612</v>
+        <v>3588</v>
       </c>
     </row>
     <row r="31" spans="4:6" x14ac:dyDescent="0.25">
@@ -3257,7 +3282,7 @@
         <v>3700</v>
       </c>
       <c r="F31">
-        <v>3653</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="32" spans="4:6" x14ac:dyDescent="0.25">
@@ -3268,7 +3293,7 @@
         <v>3700</v>
       </c>
       <c r="F32">
-        <v>3684</v>
+        <v>3668</v>
       </c>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.25">
@@ -3279,7 +3304,7 @@
         <v>3700</v>
       </c>
       <c r="F33">
-        <v>3707</v>
+        <v>3694</v>
       </c>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.25">
@@ -3290,7 +3315,7 @@
         <v>3700</v>
       </c>
       <c r="F34">
-        <v>3724</v>
+        <v>3713</v>
       </c>
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.25">
@@ -3301,7 +3326,7 @@
         <v>3700</v>
       </c>
       <c r="F35">
-        <v>3737</v>
+        <v>3728</v>
       </c>
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.25">
@@ -3312,7 +3337,7 @@
         <v>3700</v>
       </c>
       <c r="F36">
-        <v>3746</v>
+        <v>3739</v>
       </c>
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.25">
@@ -3323,7 +3348,7 @@
         <v>3700</v>
       </c>
       <c r="F37">
-        <v>3752</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.25">
@@ -3334,7 +3359,7 @@
         <v>3700</v>
       </c>
       <c r="F38">
-        <v>3757</v>
+        <v>3753</v>
       </c>
     </row>
     <row r="39" spans="4:6" x14ac:dyDescent="0.25">
@@ -3345,7 +3370,7 @@
         <v>3700</v>
       </c>
       <c r="F39">
-        <v>3761</v>
+        <v>3758</v>
       </c>
     </row>
     <row r="40" spans="4:6" x14ac:dyDescent="0.25">
@@ -3356,7 +3381,7 @@
         <v>3700</v>
       </c>
       <c r="F40">
-        <v>3764</v>
+        <v>3761</v>
       </c>
     </row>
     <row r="41" spans="4:6" x14ac:dyDescent="0.25">
@@ -3367,7 +3392,7 @@
         <v>3700</v>
       </c>
       <c r="F41">
-        <v>3766</v>
+        <v>3764</v>
       </c>
     </row>
     <row r="42" spans="4:6" x14ac:dyDescent="0.25">
@@ -3378,7 +3403,7 @@
         <v>3737</v>
       </c>
       <c r="F42">
-        <v>3767</v>
+        <v>3766</v>
       </c>
     </row>
     <row r="43" spans="4:6" x14ac:dyDescent="0.25">
@@ -3389,7 +3414,7 @@
         <v>3737</v>
       </c>
       <c r="F43">
-        <v>3768</v>
+        <v>3767</v>
       </c>
     </row>
     <row r="44" spans="4:6" x14ac:dyDescent="0.25">
@@ -3400,7 +3425,7 @@
         <v>3737</v>
       </c>
       <c r="F44">
-        <v>3769</v>
+        <v>3768</v>
       </c>
     </row>
     <row r="45" spans="4:6" x14ac:dyDescent="0.25">
@@ -3411,7 +3436,7 @@
         <v>3737</v>
       </c>
       <c r="F45">
-        <v>3770</v>
+        <v>3769</v>
       </c>
     </row>
     <row r="46" spans="4:6" x14ac:dyDescent="0.25">
@@ -3422,7 +3447,7 @@
         <v>3737</v>
       </c>
       <c r="F46">
-        <v>3770</v>
+        <v>3769</v>
       </c>
     </row>
     <row r="47" spans="4:6" x14ac:dyDescent="0.25">
@@ -3433,7 +3458,7 @@
         <v>3737</v>
       </c>
       <c r="F47">
-        <v>3769</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="48" spans="4:6" x14ac:dyDescent="0.25">
